--- a/Data/Excel/ModelResource.xlsx
+++ b/Data/Excel/ModelResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResource" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,126 @@
   </si>
   <si>
     <t>Prefabs/SoliderTower.prefab</t>
+  </si>
+  <si>
+    <t>一级箭塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/arrowTowerlv1.prefab</t>
+  </si>
+  <si>
+    <t>二级箭塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/arrowTowerlv2.prefab</t>
+  </si>
+  <si>
+    <t>三级箭塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/arrowTowerlv3.prefab</t>
+  </si>
+  <si>
+    <t>精灵箭塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/arrowCossbowTower.prefab</t>
+  </si>
+  <si>
+    <t>矮人炮塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/arrowTurretTower.prefab</t>
+  </si>
+  <si>
+    <t>一级魔法塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/mageTowerlv1.prefab</t>
+  </si>
+  <si>
+    <t>二级魔法塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/mageTowerlv2.prefab</t>
+  </si>
+  <si>
+    <t>三级魔法塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/mageTowerlv3.prefab</t>
+  </si>
+  <si>
+    <t>巫师塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/mageTowerMaster.prefab</t>
+  </si>
+  <si>
+    <t>大法师塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/mageTowerNecromancer.prefab</t>
+  </si>
+  <si>
+    <t>一级炮塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/artilleryTowerlv1.prefab</t>
+  </si>
+  <si>
+    <t>二级炮塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/artilleryTowerlv2.prefab</t>
+  </si>
+  <si>
+    <t>三级炮塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/artilleryTowerlv3.prefab</t>
+  </si>
+  <si>
+    <t>地震塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/artilleryTowerEarthquake.prefab</t>
+  </si>
+  <si>
+    <t>磁暴塔</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/artilleryTowerTesla.prefab</t>
+  </si>
+  <si>
+    <t>一级兵营</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/barrackTowerlv1.prefab</t>
+  </si>
+  <si>
+    <t>二级兵营</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/barrackTowerlv2.prefab</t>
+  </si>
+  <si>
+    <t>三级兵营</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/barrackTowerlv3.prefab</t>
+  </si>
+  <si>
+    <t>骑士营</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/barrackTowerKnight.prefab</t>
+  </si>
+  <si>
+    <t>野人营</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/barrackTowerSavage.prefab</t>
   </si>
 </sst>
 </file>
@@ -76,6 +196,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -90,15 +226,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,32 +256,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,52 +334,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +540,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,39 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +606,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -515,8 +635,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,139 +660,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +856,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1017,144 +1145,368 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.775" customWidth="1"/>
-    <col min="3" max="3" width="78.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,7 +1516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1172,7 +1524,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1181,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1189,7 +1541,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
